--- a/data/data00.xlsx
+++ b/data/data00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongb\OneDrive\바탕 화면\공정최적화\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931671A7-690A-4E59-95D1-3ABAE9F721CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC5C51F-107A-445B-887A-1F6AED2A5597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BCEA55C4-0FBB-4FAB-A89D-60A38EB22716}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BCEA55C4-0FBB-4FAB-A89D-60A38EB22716}"/>
   </bookViews>
   <sheets>
     <sheet name="블록데이터" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>납기</t>
   </si>
   <si>
-    <t>정반배치</t>
-  </si>
-  <si>
     <t>정반명</t>
   </si>
   <si>
@@ -150,6 +147,10 @@
   </si>
   <si>
     <t>S30</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -519,20 +520,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08CC464-CAB0-40BD-B625-B2E88D46DAA1}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
     <col min="6" max="6" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,161 +551,158 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
         <f ca="1">RANDBETWEEN(50, 60)</f>
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1">
-        <f ca="1">RANDBETWEEN(7, 10)</f>
-        <v>10</v>
+        <f ca="1">RANDBETWEEN(8, 16)</f>
+        <v>16</v>
       </c>
       <c r="D2" s="1">
-        <f ca="1">RANDBETWEEN(7, 10)</f>
-        <v>7</v>
+        <f ca="1">RANDBETWEEN(8, 16)</f>
+        <v>11</v>
       </c>
       <c r="E2" s="1">
-        <f ca="1">RANDBETWEEN(4, 6)</f>
+        <f ca="1">RANDBETWEEN(5, 8)</f>
         <v>5</v>
       </c>
       <c r="F2" s="2">
         <v>45337</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B31" ca="1" si="0">RANDBETWEEN(50, 60)</f>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:D31" ca="1" si="1">RANDBETWEEN(7, 10)</f>
+        <f t="shared" ref="C3:D31" ca="1" si="1">RANDBETWEEN(8, 16)</f>
+        <v>16</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E31" ca="1" si="2">RANDBETWEEN(5, 8)</f>
         <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E31" ca="1" si="2">RANDBETWEEN(4, 6)</f>
-        <v>6</v>
       </c>
       <c r="F3" s="2">
         <v>45337</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2">
         <v>45337</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <f ca="1">RANDBETWEEN(8, 16)</f>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2">
         <v>45337</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2">
         <v>45337</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" ca="1" si="1"/>
         <v>15</v>
       </c>
-      <c r="B7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">RANDBETWEEN(5, 8)</f>
         <v>6</v>
       </c>
       <c r="F7" s="2">
         <v>45342</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -713,31 +710,31 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2">
         <v>45342</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -747,129 +744,129 @@
         <v>45342</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" ca="1" si="2"/>
         <v>8</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
       </c>
       <c r="F10" s="2">
         <v>45342</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" ca="1" si="2"/>
         <v>7</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
       </c>
       <c r="F11" s="2">
         <v>45342</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <f ca="1">RANDBETWEEN(8, 16)</f>
+        <v>13</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="2">
         <v>45351</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="2">
         <v>45351</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F14" s="2">
         <v>45351</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -877,39 +874,39 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F15" s="2">
         <v>45351</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16" s="2">
         <v>45351</v>
@@ -917,23 +914,23 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" ca="1" si="2"/>
         <v>7</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
       </c>
       <c r="F17" s="2">
         <v>45361</v>
@@ -941,23 +938,23 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F18" s="2">
         <v>45361</v>
@@ -965,23 +962,23 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" ca="1" si="2"/>
         <v>7</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
       </c>
       <c r="F19" s="2">
         <v>45361</v>
@@ -989,23 +986,23 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F20" s="2">
         <v>45361</v>
@@ -1013,23 +1010,23 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21" s="2">
         <v>45361</v>
@@ -1037,23 +1034,23 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F22" s="2">
         <v>45371</v>
@@ -1061,19 +1058,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -1085,7 +1082,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -1093,15 +1090,15 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F24" s="2">
         <v>45371</v>
@@ -1109,23 +1106,23 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" ca="1" si="2"/>
         <v>7</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
       </c>
       <c r="F25" s="2">
         <v>45371</v>
@@ -1133,23 +1130,23 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
-      <c r="D26" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
       <c r="E26" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F26" s="2">
         <v>45371</v>
@@ -1157,23 +1154,23 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F27" s="2">
         <v>45382</v>
@@ -1181,23 +1178,23 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F28" s="2">
         <v>45382</v>
@@ -1205,23 +1202,23 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
-      <c r="D29" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
       <c r="E29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" s="2">
         <v>45382</v>
@@ -1229,23 +1226,23 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" ca="1" si="2"/>
         <v>8</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
       </c>
       <c r="F30" s="2">
         <v>45382</v>
@@ -1253,23 +1250,23 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F31" s="2">
         <v>45382</v>
@@ -1283,40 +1280,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4E4C2E-A304-4E3A-AE75-182CF8ABE4FB}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>100</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1">
-        <v>20</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
